--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xampp\osiris\bd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xampp\osiris\osiris\bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371AE3A1-D363-447F-810C-985EA58E226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237DFE8E-051B-4322-BEBE-ADBAE93B8BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{3E32DC6F-2995-40D6-8CCF-7810F53B053D}"/>
   </bookViews>
@@ -4307,8 +4307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6DFE57-A63A-488A-BCC0-E7D282D3CD7B}">
   <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xampp\osiris\osiris\bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237DFE8E-051B-4322-BEBE-ADBAE93B8BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A548E952-23C7-4BE7-9ABB-6173FC410D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{3E32DC6F-2995-40D6-8CCF-7810F53B053D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>pedidos</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>precio_total_sugerido</t>
+  </si>
+  <si>
+    <t>precio_producto2</t>
+  </si>
+  <si>
+    <t>precio_compra</t>
   </si>
 </sst>
 </file>
@@ -3395,13 +3401,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>369794</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1262213</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>164726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3477,13 +3483,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>816004</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>840441</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3530,13 +3536,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1266265</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3581,13 +3587,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>874059</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1101193</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>100423</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3652,13 +3658,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>40341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>760534</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>73529</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3723,13 +3729,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1627094</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>103094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>16463</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>136282</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3794,13 +3800,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>121024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1827334</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>154211</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4307,8 +4313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6DFE57-A63A-488A-BCC0-E7D282D3CD7B}">
   <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4459,8 +4465,8 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="8" t="s">
-        <v>44</v>
+      <c r="B21" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>45</v>
@@ -4471,7 +4477,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>23</v>
@@ -4481,7 +4487,15 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="F23" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
     </row>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xampp\osiris\osiris\bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A548E952-23C7-4BE7-9ABB-6173FC410D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4EA960-56C0-4200-8E4B-FD6C60647D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{3E32DC6F-2995-40D6-8CCF-7810F53B053D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>pedidos</t>
   </si>
@@ -270,6 +270,21 @@
   </si>
   <si>
     <t>precio_compra</t>
+  </si>
+  <si>
+    <t>precio_total_pedido</t>
+  </si>
+  <si>
+    <t>total_global_pedido</t>
+  </si>
+  <si>
+    <t>pedido_recibido</t>
+  </si>
+  <si>
+    <t>precio_total_llegada</t>
+  </si>
+  <si>
+    <t>total_global_confirmado</t>
   </si>
 </sst>
 </file>
@@ -320,7 +335,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +378,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -376,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -412,6 +433,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4311,10 +4333,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6DFE57-A63A-488A-BCC0-E7D282D3CD7B}">
-  <dimension ref="B2:H36"/>
+  <dimension ref="A2:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4413,7 +4435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
@@ -4427,7 +4449,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
@@ -4441,7 +4463,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
@@ -4455,7 +4477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>42</v>
       </c>
@@ -4464,7 +4486,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>76</v>
       </c>
@@ -4475,7 +4497,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
       <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
@@ -4486,7 +4509,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>44</v>
       </c>
@@ -4494,22 +4517,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="H25" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H26" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C27" s="12" t="s">
         <v>69</v>
       </c>
@@ -4520,7 +4543,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C28" s="14" t="s">
         <v>32</v>
       </c>
@@ -4531,7 +4554,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C29" s="15" t="s">
         <v>70</v>
       </c>
@@ -4542,7 +4565,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C30" s="15" t="s">
         <v>73</v>
       </c>
@@ -4553,7 +4576,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C31" s="16" t="s">
         <v>64</v>
       </c>
@@ -4564,7 +4587,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C32" s="14" t="s">
         <v>72</v>
       </c>
@@ -4588,7 +4611,7 @@
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C34" s="14" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>65</v>
@@ -4599,10 +4622,10 @@
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C35" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>60</v>
@@ -4610,9 +4633,30 @@
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C36" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="7" t="s">
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C38" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C39" s="14" t="s">
         <v>23</v>
       </c>
     </row>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xampp\osiris\osiris\bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4EA960-56C0-4200-8E4B-FD6C60647D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E5B032-C37F-4B1B-8031-61D564CAC3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{3E32DC6F-2995-40D6-8CCF-7810F53B053D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t>pedidos</t>
   </si>
@@ -269,9 +269,6 @@
     <t>precio_producto2</t>
   </si>
   <si>
-    <t>precio_compra</t>
-  </si>
-  <si>
     <t>precio_total_pedido</t>
   </si>
   <si>
@@ -285,6 +282,15 @@
   </si>
   <si>
     <t>total_global_confirmado</t>
+  </si>
+  <si>
+    <t>pedido_llegada</t>
+  </si>
+  <si>
+    <t>nombre_empleado_provedor_sug2</t>
+  </si>
+  <si>
+    <t>precio_de_compra</t>
   </si>
 </sst>
 </file>
@@ -335,7 +341,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,12 +384,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -397,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -433,7 +433,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3883,6 +3882,77 @@
               </a:solidFill>
             </a:rPr>
             <a:t>N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1149723</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9739</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>39912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="66 Rectángulo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BD95EB-2284-4C40-8FFF-3FD565A9E5B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5140698" y="5502649"/>
+          <a:ext cx="222091" cy="214163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4335,7 +4405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6DFE57-A63A-488A-BCC0-E7D282D3CD7B}">
   <dimension ref="A2:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -4498,9 +4568,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>23</v>
@@ -4592,7 +4662,7 @@
         <v>72</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>51</v>
@@ -4603,7 +4673,7 @@
         <v>74</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>57</v>
@@ -4611,10 +4681,10 @@
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C34" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>59</v>
@@ -4625,7 +4695,7 @@
         <v>71</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>60</v>
@@ -4636,7 +4706,7 @@
         <v>75</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>23</v>
@@ -4644,19 +4714,25 @@
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C37" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C38" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>23</v>
       </c>
     </row>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xampp\osiris\osiris\bd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xampp\osiris\bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E5B032-C37F-4B1B-8031-61D564CAC3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{3E32DC6F-2995-40D6-8CCF-7810F53B053D}"/>
+    <workbookView xWindow="2670" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
   <si>
     <t>pedidos</t>
   </si>
@@ -291,12 +290,15 @@
   </si>
   <si>
     <t>precio_de_compra</t>
+  </si>
+  <si>
+    <t>existencias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3422,13 +3424,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>369794</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1262213</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>164726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3504,13 +3506,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>816004</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>840441</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3557,13 +3559,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1266265</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3608,13 +3610,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>874059</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1101193</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>100423</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3679,13 +3681,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>40341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>760534</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>73529</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3750,13 +3752,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1627094</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>103094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>16463</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>136282</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3821,13 +3823,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>121024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1827334</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>154211</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4258,7 +4260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83ECD4DA-EC19-4ED8-A099-18BCDE1B71F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C46"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -4402,11 +4404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6DFE57-A63A-488A-BCC0-E7D282D3CD7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4549,7 +4551,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>43</v>
@@ -4558,7 +4560,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>45</v>
@@ -4570,7 +4572,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>23</v>
@@ -4580,19 +4582,22 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
-        <v>44</v>
+      <c r="B23" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="H25" s="6" t="s">
         <v>50</v>
       </c>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="3600" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
   <si>
     <t>pedidos</t>
   </si>
@@ -293,6 +293,66 @@
   </si>
   <si>
     <t>existencias</t>
+  </si>
+  <si>
+    <t>domicilio</t>
+  </si>
+  <si>
+    <t>id_domi</t>
+  </si>
+  <si>
+    <t>id_pers3</t>
+  </si>
+  <si>
+    <t>id_cliente2</t>
+  </si>
+  <si>
+    <t>id_vehiculo2</t>
+  </si>
+  <si>
+    <t>nivel_urgencia</t>
+  </si>
+  <si>
+    <t>tiempo_inicio</t>
+  </si>
+  <si>
+    <t>tiempo_llegada</t>
+  </si>
+  <si>
+    <t>id_obs</t>
+  </si>
+  <si>
+    <t>Observacion</t>
+  </si>
+  <si>
+    <t>id_vehiculo1</t>
+  </si>
+  <si>
+    <t>observacion</t>
+  </si>
+  <si>
+    <t>costo</t>
+  </si>
+  <si>
+    <t>vehiculo</t>
+  </si>
+  <si>
+    <t>id_vehiculo</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>placa</t>
+  </si>
+  <si>
+    <t>fecha_soat</t>
+  </si>
+  <si>
+    <t>fecha_tecn</t>
+  </si>
+  <si>
+    <t>kilometraje</t>
   </si>
 </sst>
 </file>
@@ -399,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -435,6 +495,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3959,6 +4022,800 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>773206</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>264890</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17178618" y="6533030"/>
+          <a:ext cx="892419" cy="579344"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>578223</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>51548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>69907</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>93009</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16983635" y="3346077"/>
+          <a:ext cx="892419" cy="579344"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>316006</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>170331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1208425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>21292</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13146741" y="4910419"/>
+          <a:ext cx="892419" cy="579344"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>90209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>316006</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12830735" y="5200091"/>
+          <a:ext cx="316006" cy="10644"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1208425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>90209</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14039160" y="3395382"/>
+          <a:ext cx="539693" cy="1804709"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>773206</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87967</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="58" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16427824" y="6488206"/>
+          <a:ext cx="750794" cy="334496"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>264890</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>795618</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87967</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18071037" y="5838265"/>
+          <a:ext cx="530728" cy="984437"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>73959</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="17880106" y="3648636"/>
+          <a:ext cx="575982" cy="744070"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>604686</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16416618" y="3637431"/>
+          <a:ext cx="593480" cy="94128"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1860176</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12819529" y="2465294"/>
+          <a:ext cx="336177" cy="593911"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1228595</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13166911" y="2767853"/>
+          <a:ext cx="892419" cy="579344"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1228595</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>132790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="83" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14059330" y="3057525"/>
+          <a:ext cx="541935" cy="550769"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4405,10 +5262,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H39"/>
+  <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4421,10 +5278,10 @@
     <col min="6" max="6" width="20" style="3" customWidth="1"/>
     <col min="7" max="7" width="28.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="28.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="3"/>
+    <col min="9" max="9" width="25.85546875" style="3" customWidth="1"/>
     <col min="10" max="10" width="27.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="3"/>
-    <col min="12" max="12" width="19.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="21" style="3" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" style="3" customWidth="1"/>
     <col min="13" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
@@ -4507,7 +5364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
@@ -4520,8 +5377,11 @@
       <c r="H17" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J17" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
@@ -4534,8 +5394,11 @@
       <c r="H18" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J18" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
@@ -4548,8 +5411,11 @@
       <c r="H19" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J19" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>85</v>
       </c>
@@ -4557,8 +5423,11 @@
         <v>43</v>
       </c>
       <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J20" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>42</v>
       </c>
@@ -4568,8 +5437,11 @@
       <c r="F21" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J21" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
         <v>76</v>
@@ -4580,34 +5452,55 @@
       <c r="F22" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J22" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>84</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J23" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="J24" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H26" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="J26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C27" s="12" t="s">
         <v>69</v>
       </c>
@@ -4617,8 +5510,11 @@
       <c r="H27" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L27" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C28" s="14" t="s">
         <v>32</v>
       </c>
@@ -4628,8 +5524,11 @@
       <c r="H28" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L28" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C29" s="15" t="s">
         <v>70</v>
       </c>
@@ -4639,8 +5538,11 @@
       <c r="H29" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L29" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C30" s="15" t="s">
         <v>73</v>
       </c>
@@ -4650,8 +5552,11 @@
       <c r="H30" s="13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L30" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C31" s="16" t="s">
         <v>64</v>
       </c>
@@ -4661,8 +5566,11 @@
       <c r="H31" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L31" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C32" s="14" t="s">
         <v>72</v>
       </c>
@@ -4672,8 +5580,11 @@
       <c r="H32" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="L32" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C33" s="14" t="s">
         <v>74</v>
       </c>
@@ -4684,7 +5595,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="14" t="s">
         <v>79</v>
       </c>
@@ -4694,8 +5605,11 @@
       <c r="H34" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J34" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C35" s="14" t="s">
         <v>71</v>
       </c>
@@ -4705,8 +5619,11 @@
       <c r="H35" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J35" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C36" s="14" t="s">
         <v>75</v>
       </c>
@@ -4716,28 +5633,45 @@
       <c r="H36" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J36" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C37" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J37" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C38" s="14" t="s">
         <v>80</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J38" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C39" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J40" s="7" t="s">
         <v>23</v>
       </c>
     </row>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="5460" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
   <si>
     <t>pedidos</t>
   </si>
@@ -313,9 +313,6 @@
     <t>nivel_urgencia</t>
   </si>
   <si>
-    <t>tiempo_inicio</t>
-  </si>
-  <si>
     <t>tiempo_llegada</t>
   </si>
   <si>
@@ -353,6 +350,21 @@
   </si>
   <si>
     <t>kilometraje</t>
+  </si>
+  <si>
+    <t>Ubicacion</t>
+  </si>
+  <si>
+    <t>id_ubi</t>
+  </si>
+  <si>
+    <t>ubicación</t>
+  </si>
+  <si>
+    <t>id_ubi1</t>
+  </si>
+  <si>
+    <t>destino</t>
   </si>
 </sst>
 </file>
@@ -403,7 +415,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,6 +458,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -459,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -498,6 +522,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4214,8 +4245,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13146741" y="4910419"/>
-          <a:ext cx="892419" cy="579344"/>
+          <a:off x="13146741" y="4932831"/>
+          <a:ext cx="892419" cy="579343"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -4298,7 +4329,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12830735" y="5200091"/>
+          <a:off x="12830735" y="5222503"/>
           <a:ext cx="316006" cy="10644"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4357,8 +4388,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14039160" y="3395382"/>
-          <a:ext cx="539693" cy="1804709"/>
+          <a:off x="14039160" y="3406588"/>
+          <a:ext cx="539693" cy="1815915"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4710,7 +4741,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
+          <a:schemeClr val="accent4">
             <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -4789,6 +4820,204 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="14059330" y="3057525"/>
           <a:ext cx="541935" cy="550769"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1251007</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108697</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11317941" y="1165412"/>
+          <a:ext cx="892419" cy="579344"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>795618</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>804798</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11754971" y="1744756"/>
+          <a:ext cx="9180" cy="451597"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1243855</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1860176</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>175933</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12203208" y="1423147"/>
+          <a:ext cx="616321" cy="30257"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5262,10 +5491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L40"/>
+  <dimension ref="A2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5285,72 +5514,84 @@
     <col min="13" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="I9" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E13" s="10"/>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H14" s="7" t="s">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H14" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H15" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
@@ -5360,8 +5601,8 @@
       <c r="F16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>30</v>
+      <c r="H16" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -5374,8 +5615,8 @@
       <c r="F17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>34</v>
+      <c r="H17" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>86</v>
@@ -5391,8 +5632,8 @@
       <c r="F18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>38</v>
+      <c r="H18" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>87</v>
@@ -5408,8 +5649,8 @@
       <c r="F19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>23</v>
+      <c r="H19" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>88</v>
@@ -5423,6 +5664,9 @@
         <v>43</v>
       </c>
       <c r="F20" s="8"/>
+      <c r="H20" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="J20" s="17" t="s">
         <v>89</v>
       </c>
@@ -5453,7 +5697,7 @@
         <v>46</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -5463,8 +5707,8 @@
       <c r="F23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>91</v>
+      <c r="J23" s="13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -5472,32 +5716,29 @@
         <v>44</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="J25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" s="6" t="s">
+      <c r="J26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -5508,10 +5749,13 @@
         <v>48</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -5522,10 +5766,13 @@
         <v>49</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -5535,11 +5782,11 @@
       <c r="E29" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>53</v>
+      <c r="H29" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -5550,10 +5797,10 @@
         <v>61</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -5563,11 +5810,11 @@
       <c r="E31" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>58</v>
+      <c r="H31" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -5578,7 +5825,7 @@
         <v>82</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>23</v>
@@ -5592,10 +5839,10 @@
         <v>66</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" ht="15" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C34" s="14" t="s">
         <v>79</v>
       </c>
@@ -5603,10 +5850,7 @@
         <v>63</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.2">
@@ -5617,13 +5861,10 @@
         <v>83</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="14" t="s">
         <v>75</v>
       </c>
@@ -5631,10 +5872,10 @@
         <v>65</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>96</v>
+        <v>60</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.2">
@@ -5644,8 +5885,11 @@
       <c r="E37" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J37" s="13" t="s">
-        <v>97</v>
+      <c r="H37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.2">
@@ -5655,8 +5899,8 @@
       <c r="E38" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>98</v>
+      <c r="J38" s="17" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.2">
@@ -5666,12 +5910,22 @@
       <c r="E39" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J39" s="7" t="s">
-        <v>41</v>
+      <c r="J39" s="13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J40" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J41" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="7" t="s">
         <v>23</v>
       </c>
     </row>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="7320" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
   <si>
     <t>pedidos</t>
   </si>
@@ -365,6 +365,15 @@
   </si>
   <si>
     <t>destino</t>
+  </si>
+  <si>
+    <t>pedido_fecha_factura</t>
+  </si>
+  <si>
+    <t>id_cuenta</t>
+  </si>
+  <si>
+    <t>cuenta_cobro</t>
   </si>
 </sst>
 </file>
@@ -415,7 +424,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +479,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -483,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -529,6 +550,8 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5493,8 +5516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5518,25 +5541,40 @@
       <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="21" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="E3" s="22" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="E4" s="22" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="E5" s="22" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -5836,7 +5874,7 @@
         <v>74</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>51</v>
@@ -5847,7 +5885,7 @@
         <v>79</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>57</v>
@@ -5858,7 +5896,7 @@
         <v>71</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>59</v>
@@ -5869,7 +5907,7 @@
         <v>75</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>60</v>
@@ -5883,7 +5921,7 @@
         <v>77</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>23</v>
@@ -5897,7 +5935,7 @@
         <v>80</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J38" s="17" t="s">
         <v>95</v>
@@ -5908,13 +5946,16 @@
         <v>23</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="E40" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="J40" s="7" t="s">
         <v>97</v>
       </c>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="9180" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="119">
   <si>
     <t>pedidos</t>
   </si>
@@ -103,9 +103,6 @@
     <t>direccion_proveedor</t>
   </si>
   <si>
-    <t>telefono_proveedor</t>
-  </si>
-  <si>
     <t>estado</t>
   </si>
   <si>
@@ -374,6 +371,27 @@
   </si>
   <si>
     <t>cuenta_cobro</t>
+  </si>
+  <si>
+    <t>categorias</t>
+  </si>
+  <si>
+    <t>id_cat</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>id_cat1</t>
+  </si>
+  <si>
+    <t>contacto_proveedor</t>
+  </si>
+  <si>
+    <t>nom_vendedor</t>
+  </si>
+  <si>
+    <t>telefono_vendedor</t>
   </si>
 </sst>
 </file>
@@ -424,7 +442,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +509,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -504,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -552,6 +576,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,13 +999,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>125982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1425820</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>178649</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1182,13 +1207,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>62668</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1234,13 +1259,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1389529</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1893794</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>51462</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1555,13 +1580,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>294369</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>156451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1626,13 +1651,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1620371</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1847505</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>6291</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1697,13 +1722,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>69477</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>35857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>296611</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>69044</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1768,13 +1793,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1623474</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>120681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1850608</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>142662</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3257,13 +3282,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1860176</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193516</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>33188</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3540,15 +3565,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>369794</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123266</xdr:rowOff>
+      <xdr:colOff>325832</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>167228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1262213</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>164726</xdr:rowOff>
+      <xdr:colOff>1218251</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25515</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3563,8 +3588,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="627529" y="5221942"/>
-          <a:ext cx="892419" cy="579343"/>
+          <a:off x="582274" y="5918863"/>
+          <a:ext cx="892419" cy="590979"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3622,15 +3647,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>816004</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:colOff>772042</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>840441</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123266</xdr:rowOff>
+      <xdr:colOff>796479</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>167228</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3647,8 +3672,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1073739" y="3978088"/>
-          <a:ext cx="24437" cy="1243854"/>
+          <a:off x="1028484" y="4648286"/>
+          <a:ext cx="24437" cy="1270577"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3675,15 +3700,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1266265</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:colOff>1218251</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>96372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:colOff>26292</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>137057</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3694,12 +3719,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="55" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1524000" y="5513294"/>
-          <a:ext cx="605118" cy="22412"/>
+          <a:off x="1474693" y="6214353"/>
+          <a:ext cx="647099" cy="40685"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3727,13 +3754,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>874059</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1101193</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>100423</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3798,13 +3825,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>40341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>760534</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>73529</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3869,13 +3896,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1627094</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>103094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>16463</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>136282</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3940,13 +3967,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>121024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1827334</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>154211</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4009,16 +4036,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1149723</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>6724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9739</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>39912</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>292473</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>515297</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>157144</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4033,8 +4060,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5140698" y="5502649"/>
-          <a:ext cx="222091" cy="214163"/>
+          <a:off x="548915" y="7531475"/>
+          <a:ext cx="222824" cy="216361"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5068,6 +5095,459 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>987669</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>129383</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2908CFF6-D9BA-4687-BA73-9904C55C52A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="351692" y="6945923"/>
+          <a:ext cx="892419" cy="590979"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>541460</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580EBA49-1E00-4F13-AF16-EA8CA712B8DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="234462" y="6374423"/>
+          <a:ext cx="563440" cy="754673"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>249117</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580EBA49-1E00-4F13-AF16-EA8CA712B8DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="249117" y="4772025"/>
+          <a:ext cx="112833" cy="1564298"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>541460</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>129383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542193</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>153866</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580EBA49-1E00-4F13-AF16-EA8CA712B8DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="85" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="797902" y="7536902"/>
+          <a:ext cx="733" cy="207656"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>117231</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83613</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>77150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="66 Rectángulo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BD95EB-2284-4C40-8FFF-3FD565A9E5B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="117231" y="4842364"/>
+          <a:ext cx="223557" cy="216361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>115766</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>13189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>338590</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>39050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="66 Rectángulo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BD95EB-2284-4C40-8FFF-3FD565A9E5B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="372208" y="4651131"/>
+          <a:ext cx="222824" cy="216361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>531934</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>143607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>754758</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>176795</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="66 Rectángulo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BD95EB-2284-4C40-8FFF-3FD565A9E5B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788376" y="7551126"/>
+          <a:ext cx="222824" cy="216361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5514,10 +5994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L42"/>
+  <dimension ref="A2:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5542,7 +6022,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
@@ -5550,7 +6030,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -5566,42 +6046,48 @@
         <v>21</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="E7" s="10"/>
       <c r="I7" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="E8" s="10"/>
       <c r="I8" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="I9" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E10" s="11"/>
       <c r="I10" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -5613,361 +6099,384 @@
     <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E13" s="10"/>
       <c r="H13" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H14" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>30</v>
-      </c>
       <c r="J17" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="F18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="H18" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="F19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="H19" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="8"/>
       <c r="H20" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J23" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="C29" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C30" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C31" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C32" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C33" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C34" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C35" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="C36" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C37" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C38" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C39" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C40" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="H26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="C27" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C29" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C30" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C31" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C32" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C33" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C34" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C35" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C36" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C37" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C38" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C39" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="E40" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C41" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="J41" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J42" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="23" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="12900" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
   <si>
     <t>pedidos</t>
   </si>
@@ -392,6 +392,24 @@
   </si>
   <si>
     <t>telefono_vendedor</t>
+  </si>
+  <si>
+    <t>dias</t>
+  </si>
+  <si>
+    <t>eps</t>
+  </si>
+  <si>
+    <t>arl</t>
+  </si>
+  <si>
+    <t>caja_compensacion</t>
+  </si>
+  <si>
+    <t>pension</t>
+  </si>
+  <si>
+    <t>cargo</t>
   </si>
 </sst>
 </file>
@@ -1062,13 +1080,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>9441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1197219</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>62109</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1309,13 +1327,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>118781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>398929</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1359,13 +1377,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1190064</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2241</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>120937</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1864,13 +1882,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>35859</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>24652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>262993</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>57839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1935,13 +1953,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1409701</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>8963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1636835</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>42150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2006,13 +2024,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>50168</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>60169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>277302</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>93356</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2077,13 +2095,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1432112</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>188258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1659246</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>30945</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5996,8 +6014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="D20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6038,7 +6056,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
@@ -6046,7 +6064,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -6054,14 +6072,16 @@
         <v>116</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="I7" s="18" t="s">
         <v>104</v>
       </c>
@@ -6070,7 +6090,9 @@
       <c r="C8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="I8" s="19" t="s">
         <v>105</v>
       </c>
@@ -6079,13 +6101,15 @@
       <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="I9" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="E10" s="11"/>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E10" s="10"/>
       <c r="I10" s="19" t="s">
         <v>22</v>
       </c>
@@ -6097,12 +6121,13 @@
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="E13" s="10"/>
+      <c r="E13" s="11"/>
       <c r="H13" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E14" s="10"/>
       <c r="H14" s="19" t="s">
         <v>24</v>
       </c>
@@ -6111,6 +6136,7 @@
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="E15" s="10"/>
       <c r="H15" s="20" t="s">
         <v>107</v>
       </c>
@@ -6122,6 +6148,7 @@
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
         <v>46</v>
       </c>
@@ -6268,10 +6295,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="E27" s="12" t="s">
-        <v>47</v>
-      </c>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H27" s="7" t="s">
         <v>55</v>
       </c>
@@ -6283,9 +6307,6 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E28" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="H28" s="7" t="s">
         <v>54</v>
       </c>
@@ -6300,9 +6321,6 @@
       <c r="C29" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="H29" s="7" t="s">
         <v>53</v>
       </c>
@@ -6310,12 +6328,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>60</v>
+      <c r="E30" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>52</v>
@@ -6329,7 +6347,7 @@
         <v>69</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>51</v>
@@ -6342,8 +6360,8 @@
       <c r="C32" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>81</v>
+      <c r="E32" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>57</v>
@@ -6357,7 +6375,7 @@
         <v>63</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>50</v>
@@ -6368,10 +6386,10 @@
         <v>71</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
@@ -6379,10 +6397,10 @@
         <v>73</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" x14ac:dyDescent="0.25">
@@ -6390,10 +6408,10 @@
         <v>78</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>93</v>
@@ -6404,10 +6422,10 @@
         <v>70</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>92</v>
@@ -6418,7 +6436,10 @@
         <v>74</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="J38" s="17" t="s">
         <v>94</v>
@@ -6429,7 +6450,10 @@
         <v>76</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>95</v>
@@ -6440,7 +6464,10 @@
         <v>79</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>22</v>
+        <v>64</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>96</v>
@@ -6450,12 +6477,29 @@
       <c r="C41" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="E41" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="J41" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E42" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="J42" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E43" s="14" t="s">
         <v>22</v>
       </c>
     </row>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="13830" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="130">
   <si>
     <t>pedidos</t>
   </si>
@@ -410,6 +410,21 @@
   </si>
   <si>
     <t>cargo</t>
+  </si>
+  <si>
+    <t>id_cargo</t>
+  </si>
+  <si>
+    <t>id_cargo1</t>
+  </si>
+  <si>
+    <t>fecha_ingreso</t>
+  </si>
+  <si>
+    <t>celular_pers</t>
+  </si>
+  <si>
+    <t>correo_pers</t>
   </si>
 </sst>
 </file>
@@ -5566,6 +5581,63 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>430628</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>106691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>822831</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>120063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11384378" y="8583941"/>
+          <a:ext cx="392203" cy="13372"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6012,10 +6084,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L47"/>
+  <dimension ref="A2:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6335,8 +6407,8 @@
       <c r="E30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>52</v>
+      <c r="H30" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>102</v>
@@ -6349,8 +6421,8 @@
       <c r="E31" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>51</v>
+      <c r="H31" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>103</v>
@@ -6363,8 +6435,8 @@
       <c r="E32" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>57</v>
+      <c r="H32" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>22</v>
@@ -6377,8 +6449,8 @@
       <c r="E33" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>50</v>
+      <c r="H33" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
@@ -6389,7 +6461,7 @@
         <v>61</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
@@ -6400,7 +6472,7 @@
         <v>81</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" x14ac:dyDescent="0.25">
@@ -6410,8 +6482,8 @@
       <c r="E36" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>58</v>
+      <c r="H36" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>93</v>
@@ -6425,7 +6497,7 @@
         <v>65</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>92</v>
@@ -6439,7 +6511,7 @@
         <v>62</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="J38" s="17" t="s">
         <v>94</v>
@@ -6453,7 +6525,7 @@
         <v>82</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>95</v>
@@ -6467,7 +6539,7 @@
         <v>64</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>96</v>
@@ -6481,7 +6553,7 @@
         <v>77</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>40</v>
@@ -6492,7 +6564,7 @@
         <v>80</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>22</v>
@@ -6502,24 +6574,47 @@
       <c r="E43" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="H43" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="19" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H44" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="23" t="s">
         <v>113</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="23" t="s">
         <v>114</v>
       </c>
+      <c r="G46" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G48" s="7" t="s">
         <v>22</v>
       </c>
     </row>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13830" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="15690" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
   <si>
     <t>pedidos</t>
   </si>
@@ -316,9 +316,6 @@
     <t>id_obs</t>
   </si>
   <si>
-    <t>Observacion</t>
-  </si>
-  <si>
     <t>id_vehiculo1</t>
   </si>
   <si>
@@ -425,6 +422,42 @@
   </si>
   <si>
     <t>correo_pers</t>
+  </si>
+  <si>
+    <t>id_presu</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>id_gasto</t>
+  </si>
+  <si>
+    <t>pre_detalle</t>
+  </si>
+  <si>
+    <t>id_presu_de</t>
+  </si>
+  <si>
+    <t>id_presu1</t>
+  </si>
+  <si>
+    <t>id_gasto_de</t>
+  </si>
+  <si>
+    <t>id_gasto1</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>presupuesto</t>
+  </si>
+  <si>
+    <t>gasto</t>
+  </si>
+  <si>
+    <t>gas_detalle</t>
   </si>
 </sst>
 </file>
@@ -475,7 +508,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,6 +581,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -561,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -610,6 +655,13 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5538,8 +5590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="788376" y="7551126"/>
-          <a:ext cx="222824" cy="216361"/>
+          <a:off x="789109" y="7668357"/>
+          <a:ext cx="222824" cy="214163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5585,16 +5637,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1887394</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>106690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>430628</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>106691</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>822831</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>120063</xdr:rowOff>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>54348</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5605,12 +5657,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="96" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11384378" y="8583941"/>
-          <a:ext cx="392203" cy="13372"/>
+          <a:off x="10941747" y="8488690"/>
+          <a:ext cx="488253" cy="306246"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5638,6 +5692,309 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1363066</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>164725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F2CC1F-6386-47C0-95B7-380EAC0F8DCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="8505264"/>
+          <a:ext cx="892419" cy="579343"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>885265</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>916857</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="96" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11844618" y="8202706"/>
+          <a:ext cx="31592" cy="302558"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704996</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>146163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1597415</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>21973</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6061408" y="9794428"/>
+          <a:ext cx="892419" cy="592986"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>413644</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1306063</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>27819</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="10 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E1D4531-B4E5-4549-A8EC-0FC88AC5C515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2509144" y="9805634"/>
+          <a:ext cx="892419" cy="587626"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1:N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6084,10 +6441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L48"/>
+  <dimension ref="A2:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6112,7 +6469,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
@@ -6120,7 +6477,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -6141,32 +6498,32 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>40</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>119</v>
-      </c>
       <c r="I8" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -6177,7 +6534,7 @@
         <v>22</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -6210,7 +6567,7 @@
       </c>
       <c r="E15" s="10"/>
       <c r="H15" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -6230,7 +6587,7 @@
     </row>
     <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>31</v>
@@ -6331,7 +6688,7 @@
         <v>22</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -6347,10 +6704,10 @@
         <v>43</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -6361,10 +6718,10 @@
         <v>49</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -6375,7 +6732,7 @@
         <v>91</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -6386,7 +6743,7 @@
         <v>22</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -6397,7 +6754,7 @@
         <v>53</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -6408,10 +6765,10 @@
         <v>47</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -6422,10 +6779,10 @@
         <v>48</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -6480,13 +6837,13 @@
         <v>78</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
@@ -6514,7 +6871,7 @@
         <v>58</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
@@ -6525,10 +6882,10 @@
         <v>82</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
@@ -6542,7 +6899,7 @@
         <v>59</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
@@ -6553,7 +6910,7 @@
         <v>77</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>40</v>
@@ -6564,7 +6921,7 @@
         <v>80</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>22</v>
@@ -6575,23 +6932,23 @@
         <v>22</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>22</v>
@@ -6599,23 +6956,95 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>124</v>
+      <c r="G47" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="19" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C51" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C52" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C53" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C54" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C58" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C59" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C60" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C61" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C62" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15690" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="17550" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="158">
   <si>
     <t>pedidos</t>
   </si>
@@ -458,6 +459,57 @@
   </si>
   <si>
     <t>gas_detalle</t>
+  </si>
+  <si>
+    <t>costo_gasto</t>
+  </si>
+  <si>
+    <t>r_operativos</t>
+  </si>
+  <si>
+    <t>id_ro</t>
+  </si>
+  <si>
+    <t>ro_detalles</t>
+  </si>
+  <si>
+    <t>id_ro_de</t>
+  </si>
+  <si>
+    <t>id_ro1</t>
+  </si>
+  <si>
+    <t>inventario</t>
+  </si>
+  <si>
+    <t>ventas</t>
+  </si>
+  <si>
+    <t>g_operacion</t>
+  </si>
+  <si>
+    <t>margen</t>
+  </si>
+  <si>
+    <t>u_bruta</t>
+  </si>
+  <si>
+    <t>u_neta</t>
+  </si>
+  <si>
+    <t>dividendo</t>
+  </si>
+  <si>
+    <t>cxpagar</t>
+  </si>
+  <si>
+    <t>credito</t>
+  </si>
+  <si>
+    <t>efectivo</t>
+  </si>
+  <si>
+    <t>tarjeta</t>
   </si>
 </sst>
 </file>
@@ -508,7 +560,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +645,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -606,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -662,6 +726,13 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5989,6 +6060,88 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
+            </a:rPr>
+            <a:t>1:N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1262213</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9424147" y="9726706"/>
+          <a:ext cx="892419" cy="592986"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>1:N</a:t>
           </a:r>
@@ -6441,10 +6594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L62"/>
+  <dimension ref="A2:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6461,10 +6614,12 @@
     <col min="10" max="10" width="27.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="21" style="3" customWidth="1"/>
     <col min="12" max="12" width="24.7109375" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="3"/>
+    <col min="13" max="13" width="11.42578125" style="3"/>
+    <col min="14" max="14" width="21.140625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
@@ -6472,7 +6627,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
@@ -6480,7 +6635,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
@@ -6488,23 +6643,29 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N5" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
         <v>115</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="N6" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>116</v>
       </c>
@@ -6514,8 +6675,11 @@
       <c r="I7" s="18" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N7" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
         <v>117</v>
       </c>
@@ -6526,7 +6690,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
@@ -6537,31 +6701,40 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E10" s="10"/>
       <c r="I10" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="N12" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="E13" s="11"/>
       <c r="H13" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N13" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E14" s="10"/>
       <c r="H14" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="N14" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
@@ -6569,8 +6742,11 @@
       <c r="H15" s="20" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="N15" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
@@ -6584,8 +6760,11 @@
       <c r="H16" s="19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="N16" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>114</v>
       </c>
@@ -6601,8 +6780,11 @@
       <c r="J17" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
@@ -6618,8 +6800,11 @@
       <c r="J18" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
@@ -6635,8 +6820,11 @@
       <c r="J19" s="17" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N19" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>38</v>
       </c>
@@ -6650,8 +6838,11 @@
       <c r="J20" s="17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N20" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>84</v>
       </c>
@@ -6664,8 +6855,11 @@
       <c r="J21" s="17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N21" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
         <v>41</v>
@@ -6679,8 +6873,11 @@
       <c r="J22" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N22" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>75</v>
       </c>
@@ -6690,16 +6887,22 @@
       <c r="J23" s="13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>83</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="N24" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>43</v>
       </c>
@@ -6709,8 +6912,11 @@
       <c r="L25" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="N25" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
@@ -6723,8 +6929,11 @@
       <c r="L26" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H27" s="7" t="s">
         <v>55</v>
       </c>
@@ -6735,7 +6944,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H28" s="7" t="s">
         <v>54</v>
       </c>
@@ -6746,7 +6955,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="12" t="s">
         <v>68</v>
       </c>
@@ -6757,7 +6966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="14" t="s">
         <v>31</v>
       </c>
@@ -6771,7 +6980,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C31" s="15" t="s">
         <v>69</v>
       </c>
@@ -6785,7 +6994,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C32" s="15" t="s">
         <v>72</v>
       </c>
@@ -7045,6 +7254,16 @@
       </c>
       <c r="E62" s="7" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C63" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C64" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17550" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="18480" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="162">
   <si>
     <t>pedidos</t>
   </si>
@@ -510,6 +509,18 @@
   </si>
   <si>
     <t>tarjeta</t>
+  </si>
+  <si>
+    <t>id_pers4</t>
+  </si>
+  <si>
+    <t>id_pre_detalle_cat</t>
+  </si>
+  <si>
+    <t>cate_pre</t>
+  </si>
+  <si>
+    <t>pre_detalle_cat</t>
   </si>
 </sst>
 </file>
@@ -560,7 +571,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,6 +668,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -670,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -733,6 +750,7 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5990,15 +6008,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>413644</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>157369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1306063</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>27819</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6148,6 +6166,202 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1519948</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38538</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="10 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E1D4531-B4E5-4549-A8EC-0FC88AC5C515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11586882" y="10399059"/>
+          <a:ext cx="892419" cy="598832"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1:N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1042147</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1703294</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12001500" y="8236324"/>
+          <a:ext cx="661147" cy="2173941"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1519948</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>97710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="99" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12479301" y="10698475"/>
+          <a:ext cx="362641" cy="81584"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6594,10 +6808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N64"/>
+  <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="H48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7179,91 +7393,117 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="G48" s="19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C51" s="24" t="s">
+      <c r="I48" s="24" t="s">
         <v>138</v>
       </c>
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="I49" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="I50" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" ht="15" x14ac:dyDescent="0.25">
       <c r="E51" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C52" s="25" t="s">
-        <v>129</v>
-      </c>
+      <c r="I51" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E52" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C53" s="25" t="s">
-        <v>130</v>
-      </c>
+    <row r="53" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E53" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C54" s="25" t="s">
-        <v>137</v>
-      </c>
+    <row r="54" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E54" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C58" s="24" t="s">
+    <row r="55" spans="5:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I55" s="24" t="s">
         <v>132</v>
       </c>
+      <c r="K55" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="I56" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="K56" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="I57" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K57" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11" ht="15" x14ac:dyDescent="0.25">
       <c r="E58" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C59" s="25" t="s">
-        <v>133</v>
-      </c>
+      <c r="I58" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E59" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C60" s="26" t="s">
-        <v>134</v>
-      </c>
+      <c r="I59" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E60" s="17" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C61" s="25" t="s">
-        <v>6</v>
-      </c>
+      <c r="I60" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E61" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C62" s="25" t="s">
-        <v>95</v>
-      </c>
+      <c r="I61" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E62" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C63" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C64" s="25" t="s">
-        <v>22</v>
+      <c r="I62" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="I63" s="26" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18480" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="19410" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="164">
   <si>
     <t>pedidos</t>
   </si>
@@ -521,6 +521,12 @@
   </si>
   <si>
     <t>pre_detalle_cat</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
 </sst>
 </file>
@@ -687,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -751,6 +757,9 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6810,8 +6819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6837,7 +6846,8 @@
       <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="31"/>
+      <c r="G2" s="21" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6845,7 +6855,8 @@
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="10"/>
+      <c r="G3" s="22" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6853,15 +6864,17 @@
       <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="10"/>
+      <c r="G4" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="G5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="27" t="s">
@@ -6870,9 +6883,10 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="G6" s="22" t="s">
         <v>95</v>
       </c>
       <c r="N6" s="28" t="s">
@@ -6881,9 +6895,10 @@
     </row>
     <row r="7" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="G7" s="22" t="s">
         <v>40</v>
       </c>
       <c r="I7" s="18" t="s">
@@ -6895,9 +6910,10 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="G8" s="22" t="s">
         <v>118</v>
       </c>
       <c r="I8" s="19" t="s">
@@ -6906,9 +6922,10 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="G9" s="22" t="s">
         <v>22</v>
       </c>
       <c r="I9" s="19" t="s">
@@ -6916,12 +6933,18 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="I10" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="2:14" ht="15" x14ac:dyDescent="0.25">

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19410" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="20340" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -6819,8 +6819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7307,7 +7307,7 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="30" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="14" t="s">
@@ -7321,7 +7321,7 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="30" t="s">
         <v>76</v>
       </c>
       <c r="E39" s="14" t="s">
@@ -7335,10 +7335,10 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="30" t="s">
         <v>64</v>
       </c>
       <c r="H40" s="7" t="s">
@@ -7352,7 +7352,7 @@
       <c r="C41" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="30" t="s">
         <v>77</v>
       </c>
       <c r="H41" s="7" t="s">
@@ -7363,7 +7363,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="30" t="s">
         <v>80</v>
       </c>
       <c r="H42" s="7" t="s">

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20340" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="21270" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="171">
   <si>
     <t>pedidos</t>
   </si>
@@ -527,6 +527,27 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>cuadre_caja</t>
+  </si>
+  <si>
+    <t>descripcion_cuadre</t>
+  </si>
+  <si>
+    <t>costo_cuadre</t>
+  </si>
+  <si>
+    <t>id_cuadre_caja</t>
+  </si>
+  <si>
+    <t>pagos_caja</t>
+  </si>
+  <si>
+    <t>id_pagos_caja</t>
+  </si>
+  <si>
+    <t>descripcion_caja</t>
   </si>
 </sst>
 </file>
@@ -6819,8 +6840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7217,7 +7238,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C31" s="15" t="s">
         <v>69</v>
       </c>
@@ -7229,6 +7250,9 @@
       </c>
       <c r="L31" s="7" t="s">
         <v>102</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -7244,8 +7268,11 @@
       <c r="L32" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="N32" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C33" s="16" t="s">
         <v>63</v>
       </c>
@@ -7255,8 +7282,11 @@
       <c r="H33" s="13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="N33" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C34" s="14" t="s">
         <v>71</v>
       </c>
@@ -7266,8 +7296,11 @@
       <c r="H34" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="N34" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C35" s="14" t="s">
         <v>73</v>
       </c>
@@ -7277,8 +7310,12 @@
       <c r="H35" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="N35" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
       <c r="C36" s="14" t="s">
         <v>78</v>
       </c>
@@ -7291,8 +7328,9 @@
       <c r="J36" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C37" s="14" t="s">
         <v>70</v>
       </c>
@@ -7306,7 +7344,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C38" s="30" t="s">
         <v>74</v>
       </c>
@@ -7319,8 +7357,11 @@
       <c r="J38" s="17" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="N38" s="27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C39" s="30" t="s">
         <v>76</v>
       </c>
@@ -7333,8 +7374,11 @@
       <c r="J39" s="13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="N39" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C40" s="30" t="s">
         <v>79</v>
       </c>
@@ -7347,8 +7391,11 @@
       <c r="J40" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="N40" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C41" s="14" t="s">
         <v>22</v>
       </c>
@@ -7361,8 +7408,11 @@
       <c r="J41" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="N41" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E42" s="30" t="s">
         <v>80</v>
       </c>
@@ -7372,8 +7422,11 @@
       <c r="J42" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="N42" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E43" s="14" t="s">
         <v>22</v>
       </c>
@@ -7381,7 +7434,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B44" s="19" t="s">
         <v>111</v>
       </c>
@@ -7389,7 +7442,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="23" t="s">
         <v>112</v>
       </c>
@@ -7400,7 +7453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B46" s="23" t="s">
         <v>113</v>
       </c>
@@ -7408,7 +7461,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B47" s="23" t="s">
         <v>22</v>
       </c>
@@ -7416,7 +7469,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="G48" s="19" t="s">
         <v>22</v>
       </c>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21270" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="22200" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="174">
   <si>
     <t>pedidos</t>
   </si>
@@ -548,6 +548,15 @@
   </si>
   <si>
     <t>descripcion_caja</t>
+  </si>
+  <si>
+    <t>id_kilometraje</t>
+  </si>
+  <si>
+    <t>id_vehiculo3</t>
+  </si>
+  <si>
+    <t>kilometra</t>
   </si>
 </sst>
 </file>
@@ -6365,6 +6374,206 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="12479301" y="10698475"/>
           <a:ext cx="362641" cy="81584"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546652</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1438097</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33178</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18345978" y="2426804"/>
+          <a:ext cx="891445" cy="588113"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>861391</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>992375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="104" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18660717" y="3014917"/>
+          <a:ext cx="130984" cy="1441127"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>8284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>992375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="104" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="17815892" y="1863588"/>
+          <a:ext cx="975809" cy="563216"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6840,8 +7049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6941,7 +7150,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>116</v>
       </c>
@@ -6952,6 +7161,9 @@
       <c r="I9" s="19" t="s">
         <v>105</v>
       </c>
+      <c r="K9" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
@@ -6961,15 +7173,24 @@
       <c r="I10" s="19" t="s">
         <v>22</v>
       </c>
+      <c r="K10" s="7" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="10"/>
+      <c r="K11" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="E12" s="10"/>
+      <c r="K12" s="17" t="s">
+        <v>172</v>
+      </c>
       <c r="N12" s="27" t="s">
         <v>144</v>
       </c>
@@ -6978,6 +7199,9 @@
       <c r="E13" s="11"/>
       <c r="H13" s="18" t="s">
         <v>23</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="N13" s="28" t="s">
         <v>145</v>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22200" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="23130" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="179">
   <si>
     <t>pedidos</t>
   </si>
@@ -557,6 +557,21 @@
   </si>
   <si>
     <t>kilometra</t>
+  </si>
+  <si>
+    <t>factura_abono</t>
+  </si>
+  <si>
+    <t>id_cliente1</t>
+  </si>
+  <si>
+    <t>id_factura_abono</t>
+  </si>
+  <si>
+    <t>abono</t>
+  </si>
+  <si>
+    <t>id_cliente3</t>
   </si>
 </sst>
 </file>
@@ -787,8 +802,8 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6574,6 +6589,406 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="17815892" y="1863588"/>
           <a:ext cx="975809" cy="563216"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>705971</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3923</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="109" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9760324" y="963706"/>
+          <a:ext cx="246529" cy="877982"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>705971</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1598390</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119904</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9760324" y="1546412"/>
+          <a:ext cx="892419" cy="590551"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1598390</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="109" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10652743" y="1841688"/>
+          <a:ext cx="329022" cy="948577"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1407889</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>97492</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9569823" y="3014382"/>
+          <a:ext cx="892419" cy="590551"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="114" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9087971" y="3309658"/>
+          <a:ext cx="481852" cy="18489"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1407889</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="114" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10462242" y="3309658"/>
+          <a:ext cx="497111" cy="18489"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7049,8 +7464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7076,36 +7491,44 @@
       <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>110</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="G3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>109</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="G4" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>46</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="G5" s="22" t="s">
+      <c r="E5" s="22" t="s">
         <v>6</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="N5" s="27" t="s">
         <v>142</v>
@@ -7115,10 +7538,10 @@
       <c r="C6" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="G6" s="22" t="s">
+      <c r="E6" s="22" t="s">
         <v>95</v>
       </c>
+      <c r="G6" s="10"/>
       <c r="N6" s="28" t="s">
         <v>143</v>
       </c>
@@ -7127,10 +7550,10 @@
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="G7" s="22" t="s">
+      <c r="E7" s="22" t="s">
         <v>40</v>
       </c>
+      <c r="G7" s="10"/>
       <c r="I7" s="18" t="s">
         <v>103</v>
       </c>
@@ -7142,10 +7565,10 @@
       <c r="C8" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="G8" s="22" t="s">
+      <c r="E8" s="22" t="s">
         <v>118</v>
       </c>
+      <c r="G8" s="10"/>
       <c r="I8" s="19" t="s">
         <v>104</v>
       </c>
@@ -7154,10 +7577,10 @@
       <c r="C9" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="G9" s="22" t="s">
+      <c r="E9" s="22" t="s">
         <v>22</v>
       </c>
+      <c r="G9" s="10"/>
       <c r="I9" s="19" t="s">
         <v>105</v>
       </c>
@@ -7313,7 +7736,9 @@
       <c r="D20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="H20" s="19" t="s">
         <v>22</v>
       </c>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23130" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="24060" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="180">
   <si>
     <t>pedidos</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>id_cliente3</t>
+  </si>
+  <si>
+    <t>fecha_abono</t>
   </si>
 </sst>
 </file>
@@ -6622,12 +6625,12 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>705971</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
+      <xdr:colOff>885265</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>3923</xdr:rowOff>
     </xdr:to>
@@ -6646,8 +6649,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9760324" y="963706"/>
-          <a:ext cx="246529" cy="877982"/>
+          <a:off x="9760324" y="1120588"/>
+          <a:ext cx="179294" cy="721100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7465,7 +7468,7 @@
   <dimension ref="A2:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7527,8 +7530,8 @@
       <c r="E5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>175</v>
+      <c r="G5" s="31" t="s">
+        <v>179</v>
       </c>
       <c r="N5" s="27" t="s">
         <v>142</v>
@@ -7541,7 +7544,9 @@
       <c r="E6" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="N6" s="28" t="s">
         <v>143</v>
       </c>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24060" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="24990" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="181">
   <si>
     <t>pedidos</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>fecha_abono</t>
+  </si>
+  <si>
+    <t>metodo_abono</t>
   </si>
 </sst>
 </file>
@@ -6625,12 +6628,12 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>705971</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>885265</xdr:colOff>
+      <xdr:colOff>862853</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>3923</xdr:rowOff>
     </xdr:to>
@@ -6649,8 +6652,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9760324" y="1120588"/>
-          <a:ext cx="179294" cy="721100"/>
+          <a:off x="9760324" y="1322294"/>
+          <a:ext cx="156882" cy="519394"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7468,7 +7471,7 @@
   <dimension ref="A2:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7558,7 +7561,9 @@
       <c r="E7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="31" t="s">
+        <v>180</v>
+      </c>
       <c r="I7" s="18" t="s">
         <v>103</v>
       </c>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24990" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="25920" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="189">
   <si>
     <t>pedidos</t>
   </si>
@@ -578,6 +578,30 @@
   </si>
   <si>
     <t>metodo_abono</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>id_control</t>
+  </si>
+  <si>
+    <t>llegada</t>
+  </si>
+  <si>
+    <t>ir_desayuno</t>
+  </si>
+  <si>
+    <t>regre_desayuno</t>
+  </si>
+  <si>
+    <t>ir_almuerzo</t>
+  </si>
+  <si>
+    <t>regre_almuerzo</t>
+  </si>
+  <si>
+    <t>salida</t>
   </si>
 </sst>
 </file>
@@ -6995,6 +7019,206 @@
         <a:xfrm>
           <a:off x="10462242" y="3309658"/>
           <a:ext cx="497111" cy="18489"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1199029</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365742</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>52668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14029764" y="7888941"/>
+          <a:ext cx="892419" cy="601756"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365742</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>121584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1837765</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="107" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14922183" y="8189819"/>
+          <a:ext cx="1472023" cy="898152"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1199029</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>121584</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="107" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12841941" y="6219265"/>
+          <a:ext cx="1187823" cy="1970554"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7470,8 +7694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="F31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8135,16 +8359,25 @@
       <c r="I48" s="24" t="s">
         <v>138</v>
       </c>
+      <c r="K48" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="49" spans="5:11" x14ac:dyDescent="0.2">
       <c r="I49" s="25" t="s">
         <v>129</v>
       </c>
+      <c r="K49" s="7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="50" spans="5:11" x14ac:dyDescent="0.2">
       <c r="I50" s="25" t="s">
         <v>130</v>
       </c>
+      <c r="K50" s="17" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="51" spans="5:11" ht="15" x14ac:dyDescent="0.25">
       <c r="E51" s="6" t="s">
@@ -8153,55 +8386,76 @@
       <c r="I51" s="25" t="s">
         <v>137</v>
       </c>
+      <c r="K51" s="7" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="52" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E52" s="7" t="s">
         <v>131</v>
       </c>
+      <c r="K52" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="53" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E53" s="7" t="s">
         <v>130</v>
       </c>
+      <c r="K53" s="7" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="54" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E54" s="7" t="s">
         <v>137</v>
       </c>
+      <c r="K54" s="7" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="55" spans="5:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="G55" s="24" t="s">
+        <v>161</v>
+      </c>
       <c r="I55" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="K55" s="24" t="s">
-        <v>161</v>
+      <c r="K55" s="7" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G56" s="25" t="s">
+        <v>159</v>
+      </c>
       <c r="I56" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="K56" s="25" t="s">
-        <v>159</v>
+      <c r="K56" s="7" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G57" s="25" t="s">
+        <v>160</v>
+      </c>
       <c r="I57" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="K57" s="25" t="s">
-        <v>160</v>
+      <c r="K57" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="5:11" ht="15" x14ac:dyDescent="0.25">
       <c r="E58" s="6" t="s">
         <v>140</v>
       </c>
+      <c r="G58" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="I58" s="25" t="s">
         <v>6</v>
-      </c>
-      <c r="K58" s="25" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="59" spans="5:11" x14ac:dyDescent="0.2">

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25920" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="26850" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="190">
   <si>
     <t>pedidos</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>salida</t>
+  </si>
+  <si>
+    <t>precio_producto3</t>
   </si>
 </sst>
 </file>
@@ -3824,13 +3827,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>325832</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>167228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1218251</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>25515</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3906,13 +3909,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>772042</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>10344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>796479</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>167228</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3959,13 +3962,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1218251</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>96372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>26292</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>137057</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4012,13 +4015,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>874059</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1101193</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>100423</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4083,13 +4086,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>40341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>760534</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>73529</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4154,13 +4157,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1627094</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>103094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>16463</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>136282</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4225,13 +4228,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>121024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1827334</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>154211</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4296,13 +4299,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>292473</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>123956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>515297</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>157144</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5359,13 +5362,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>87923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>987669</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>129383</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5494,13 +5497,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>249117</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>229290</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>77150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>249118</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>87923</xdr:rowOff>
     </xdr:to>
@@ -5513,12 +5516,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="249117" y="4772025"/>
-          <a:ext cx="112833" cy="1564298"/>
+        <a:xfrm>
+          <a:off x="229290" y="5041356"/>
+          <a:ext cx="19828" cy="1299449"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5546,13 +5551,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>541460</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>129383</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>542193</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>153866</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5670,13 +5675,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>115766</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>13189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>338590</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>39050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5741,13 +5746,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>531934</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>143607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>754758</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>176795</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7694,8 +7699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8033,8 +8038,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
-        <v>83</v>
+      <c r="B24" s="30" t="s">
+        <v>189</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>90</v>
@@ -8044,8 +8049,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>43</v>
+      <c r="B25" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>105</v>
@@ -8058,8 +8063,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>22</v>
+      <c r="B26" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>49</v>
@@ -8075,6 +8080,9 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H27" s="7" t="s">
         <v>55</v>
       </c>
@@ -8318,16 +8326,13 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B44" s="19" t="s">
-        <v>111</v>
-      </c>
       <c r="H44" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="23" t="s">
-        <v>112</v>
+      <c r="B45" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>123</v>
@@ -8338,7 +8343,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B46" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G46" s="19" t="s">
         <v>124</v>
@@ -8346,13 +8351,16 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B47" s="23" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B48" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="G48" s="19" t="s">
         <v>22</v>
       </c>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26850" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="27780" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="194">
   <si>
     <t>pedidos</t>
   </si>
@@ -605,6 +605,18 @@
   </si>
   <si>
     <t>precio_producto3</t>
+  </si>
+  <si>
+    <t>requerimientos</t>
+  </si>
+  <si>
+    <t>id_reque</t>
+  </si>
+  <si>
+    <t>reque</t>
+  </si>
+  <si>
+    <t>id_pers5</t>
   </si>
 </sst>
 </file>
@@ -6015,13 +6027,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>704996</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>146163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1597415</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>21973</xdr:rowOff>
@@ -7224,6 +7236,206 @@
         <a:xfrm>
           <a:off x="12841941" y="6219265"/>
           <a:ext cx="1187823" cy="1970554"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1692088</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>220066</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>189574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="8202706"/>
+          <a:ext cx="892419" cy="604192"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1086970</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1692088</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="113" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6443382" y="8504802"/>
+          <a:ext cx="605118" cy="650404"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>220066</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66773</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="113" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7940919" y="6768353"/>
+          <a:ext cx="3029640" cy="1736449"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7699,8 +7911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8371,7 +8583,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="I49" s="25" t="s">
         <v>129</v>
       </c>
@@ -8379,7 +8591,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="I50" s="25" t="s">
         <v>130</v>
       </c>
@@ -8387,9 +8599,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="5:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="C51" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="E51" s="6" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="I51" s="25" t="s">
         <v>137</v>
@@ -8398,31 +8613,43 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C52" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="E52" s="7" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E53" s="7" t="s">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C53" s="7" t="s">
         <v>130</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C54" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="E54" s="7" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="5:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="E55" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G55" s="24" t="s">
         <v>161</v>
       </c>
@@ -8433,7 +8660,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E56" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="G56" s="25" t="s">
         <v>159</v>
       </c>
@@ -8444,7 +8674,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G57" s="25" t="s">
         <v>160</v>
       </c>
@@ -8455,8 +8685,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="5:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="E58" s="6" t="s">
+    <row r="58" spans="3:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="C58" s="6" t="s">
         <v>140</v>
       </c>
       <c r="G58" s="25" t="s">
@@ -8466,39 +8696,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E59" s="7" t="s">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C59" s="7" t="s">
         <v>135</v>
       </c>
       <c r="I59" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E60" s="17" t="s">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C60" s="17" t="s">
         <v>136</v>
       </c>
       <c r="I60" s="30" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E61" s="7" t="s">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C61" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I61" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E62" s="7" t="s">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C62" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I62" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
       <c r="I63" s="26" t="s">
         <v>158</v>
       </c>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27780" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="28710" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="198">
   <si>
     <t>pedidos</t>
   </si>
@@ -617,6 +617,18 @@
   </si>
   <si>
     <t>id_pers5</t>
+  </si>
+  <si>
+    <t>ro_detalles_inversion</t>
+  </si>
+  <si>
+    <t>id_ro_de_inv</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>id_ro_de1</t>
   </si>
 </sst>
 </file>
@@ -7463,6 +7475,88 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1016244</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>36054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21745575" y="2771775"/>
+          <a:ext cx="892419" cy="607554"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7909,10 +8003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N63"/>
+  <dimension ref="A2:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7931,10 +8025,12 @@
     <col min="12" max="12" width="24.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="3"/>
     <col min="14" max="14" width="21.140625" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="3"/>
+    <col min="15" max="15" width="16.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="27.7109375" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
@@ -7945,7 +8041,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
@@ -7956,7 +8052,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
@@ -7967,7 +8063,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>163</v>
       </c>
@@ -7981,7 +8077,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
         <v>162</v>
       </c>
@@ -7995,7 +8091,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
@@ -8012,7 +8108,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
         <v>115</v>
       </c>
@@ -8024,7 +8120,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>116</v>
       </c>
@@ -8039,7 +8135,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
         <v>117</v>
       </c>
@@ -8051,7 +8147,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
@@ -8060,7 +8156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15" x14ac:dyDescent="0.25">
       <c r="E12" s="10"/>
       <c r="K12" s="17" t="s">
         <v>172</v>
@@ -8069,7 +8165,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="15" x14ac:dyDescent="0.25">
       <c r="E13" s="11"/>
       <c r="H13" s="18" t="s">
         <v>23</v>
@@ -8081,7 +8177,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E14" s="10"/>
       <c r="H14" s="19" t="s">
         <v>24</v>
@@ -8090,7 +8186,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
@@ -8101,8 +8197,11 @@
       <c r="N15" s="28" t="s">
         <v>130</v>
       </c>
+      <c r="P15" s="27" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="16" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
@@ -8119,8 +8218,11 @@
       <c r="N16" s="28" t="s">
         <v>147</v>
       </c>
+      <c r="P16" s="28" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>114</v>
       </c>
@@ -8139,8 +8241,11 @@
       <c r="N17" s="28" t="s">
         <v>148</v>
       </c>
+      <c r="P17" s="29" t="s">
+        <v>197</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
@@ -8159,8 +8264,11 @@
       <c r="N18" s="28" t="s">
         <v>149</v>
       </c>
+      <c r="P18" s="28" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
@@ -8180,7 +8288,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>38</v>
       </c>
@@ -8200,7 +8308,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>84</v>
       </c>
@@ -8217,7 +8325,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
         <v>41</v>
@@ -8235,7 +8343,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>75</v>
       </c>
@@ -8249,7 +8357,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B24" s="30" t="s">
         <v>189</v>
       </c>
@@ -8260,7 +8368,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>83</v>
       </c>
@@ -8274,7 +8382,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>43</v>
       </c>
@@ -8291,7 +8399,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>22</v>
       </c>
@@ -8305,7 +8413,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H28" s="7" t="s">
         <v>54</v>
       </c>
@@ -8316,7 +8424,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="12" t="s">
         <v>68</v>
       </c>
@@ -8327,7 +8435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="14" t="s">
         <v>31</v>
       </c>
@@ -8341,7 +8449,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C31" s="15" t="s">
         <v>69</v>
       </c>
@@ -8358,7 +8466,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="15" t="s">
         <v>72</v>
       </c>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28710" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="29640" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="194">
   <si>
     <t>pedidos</t>
   </si>
@@ -490,12 +490,6 @@
     <t>margen</t>
   </si>
   <si>
-    <t>u_bruta</t>
-  </si>
-  <si>
-    <t>u_neta</t>
-  </si>
-  <si>
     <t>dividendo</t>
   </si>
   <si>
@@ -619,16 +613,10 @@
     <t>id_pers5</t>
   </si>
   <si>
-    <t>ro_detalles_inversion</t>
-  </si>
-  <si>
-    <t>id_ro_de_inv</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>id_ro_de1</t>
+    <t>comentario_inversion</t>
+  </si>
+  <si>
+    <t>inversion</t>
   </si>
 </sst>
 </file>
@@ -7475,88 +7463,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1016244</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>36054</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="15 Rombo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21745575" y="2771775"/>
-          <a:ext cx="892419" cy="607554"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1:1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8003,10 +7909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P63"/>
+  <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="J10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8026,11 +7932,10 @@
     <col min="13" max="13" width="11.42578125" style="3"/>
     <col min="14" max="14" width="21.140625" style="3" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="27.7109375" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="3"/>
+    <col min="16" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
@@ -8038,10 +7943,10 @@
         <v>110</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
@@ -8049,10 +7954,10 @@
         <v>109</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
@@ -8060,38 +7965,38 @@
         <v>46</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N5" s="27" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>95</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
@@ -8099,7 +8004,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>103</v>
@@ -8108,7 +8013,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
         <v>115</v>
       </c>
@@ -8120,7 +8025,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>116</v>
       </c>
@@ -8135,7 +8040,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
         <v>117</v>
       </c>
@@ -8144,10 +8049,10 @@
         <v>22</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
@@ -8156,28 +8061,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="E12" s="10"/>
       <c r="K12" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N12" s="27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="E13" s="11"/>
       <c r="H13" s="18" t="s">
         <v>23</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N13" s="28" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E14" s="10"/>
       <c r="H14" s="19" t="s">
         <v>24</v>
@@ -8186,7 +8091,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
@@ -8197,11 +8102,8 @@
       <c r="N15" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="P15" s="27" t="s">
-        <v>194</v>
-      </c>
     </row>
-    <row r="16" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
@@ -8218,11 +8120,8 @@
       <c r="N16" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="P16" s="28" t="s">
-        <v>195</v>
-      </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>114</v>
       </c>
@@ -8241,11 +8140,8 @@
       <c r="N17" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="P17" s="29" t="s">
-        <v>197</v>
-      </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
@@ -8264,11 +8160,8 @@
       <c r="N18" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="P18" s="28" t="s">
-        <v>196</v>
-      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
@@ -8288,7 +8181,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>38</v>
       </c>
@@ -8296,7 +8189,7 @@
         <v>42</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>22</v>
@@ -8308,7 +8201,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>84</v>
       </c>
@@ -8325,7 +8218,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
         <v>41</v>
@@ -8343,7 +8236,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>75</v>
       </c>
@@ -8357,9 +8250,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B24" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>90</v>
@@ -8368,7 +8261,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>83</v>
       </c>
@@ -8379,10 +8272,10 @@
         <v>96</v>
       </c>
       <c r="N25" s="28" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>43</v>
       </c>
@@ -8396,10 +8289,10 @@
         <v>97</v>
       </c>
       <c r="N26" s="28" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>22</v>
       </c>
@@ -8413,7 +8306,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H28" s="7" t="s">
         <v>54</v>
       </c>
@@ -8424,7 +8317,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="12" t="s">
         <v>68</v>
       </c>
@@ -8435,7 +8328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="14" t="s">
         <v>31</v>
       </c>
@@ -8449,7 +8342,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C31" s="15" t="s">
         <v>69</v>
       </c>
@@ -8462,11 +8355,8 @@
       <c r="L31" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="N31" s="27" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="15" t="s">
         <v>72</v>
       </c>
@@ -8479,8 +8369,8 @@
       <c r="L32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="28" t="s">
-        <v>167</v>
+      <c r="N32" s="27" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -8508,7 +8398,7 @@
         <v>57</v>
       </c>
       <c r="N34" s="28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -8522,7 +8412,7 @@
         <v>50</v>
       </c>
       <c r="N35" s="28" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -8539,7 +8429,9 @@
       <c r="J36" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="N36" s="10"/>
+      <c r="N36" s="28" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C37" s="14" t="s">
@@ -8554,8 +8446,9 @@
       <c r="J37" s="7" t="s">
         <v>92</v>
       </c>
+      <c r="N37" s="10"/>
     </row>
-    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C38" s="30" t="s">
         <v>74</v>
       </c>
@@ -8568,11 +8461,8 @@
       <c r="J38" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="N38" s="27" t="s">
-        <v>168</v>
-      </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C39" s="30" t="s">
         <v>76</v>
       </c>
@@ -8585,8 +8475,8 @@
       <c r="J39" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="N39" s="28" t="s">
-        <v>169</v>
+      <c r="N39" s="27" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -8603,7 +8493,7 @@
         <v>95</v>
       </c>
       <c r="N40" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -8620,7 +8510,7 @@
         <v>40</v>
       </c>
       <c r="N41" s="28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -8634,7 +8524,7 @@
         <v>22</v>
       </c>
       <c r="N42" s="28" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -8644,6 +8534,9 @@
       <c r="H43" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="N43" s="28" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H44" s="7" t="s">
@@ -8688,7 +8581,7 @@
         <v>138</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.2">
@@ -8696,7 +8589,7 @@
         <v>129</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.2">
@@ -8704,7 +8597,7 @@
         <v>130</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="3:11" ht="15" x14ac:dyDescent="0.25">
@@ -8712,13 +8605,13 @@
         <v>139</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I51" s="25" t="s">
         <v>137</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.2">
@@ -8726,10 +8619,10 @@
         <v>131</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.2">
@@ -8737,10 +8630,10 @@
         <v>130</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.2">
@@ -8748,10 +8641,10 @@
         <v>137</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="3:11" ht="15" x14ac:dyDescent="0.25">
@@ -8759,13 +8652,13 @@
         <v>40</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I55" s="24" t="s">
         <v>132</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.2">
@@ -8773,18 +8666,18 @@
         <v>22</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I56" s="25" t="s">
         <v>133</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G57" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I57" s="26" t="s">
         <v>134</v>
@@ -8838,7 +8731,7 @@
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.2">
       <c r="I63" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29640" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="30570" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="197">
   <si>
     <t>pedidos</t>
   </si>
@@ -617,6 +617,15 @@
   </si>
   <si>
     <t>inversion</t>
+  </si>
+  <si>
+    <t>ventas_diarias</t>
+  </si>
+  <si>
+    <t>id_ven_dia</t>
+  </si>
+  <si>
+    <t>id_fecha1</t>
   </si>
 </sst>
 </file>
@@ -783,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -850,6 +859,9 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7436,6 +7448,206 @@
         <a:xfrm flipH="1">
           <a:off x="7940919" y="6768353"/>
           <a:ext cx="3029640" cy="1736449"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>621927</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>32497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1514346</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>87601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15178368" y="10117791"/>
+          <a:ext cx="892419" cy="604192"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1068137</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>32497</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="119" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14556441" y="8987118"/>
+          <a:ext cx="1068137" cy="1130673"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1068137</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>87601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="119" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15624578" y="10721983"/>
+          <a:ext cx="780834" cy="618370"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7911,8 +8123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="H40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7932,7 +8144,8 @@
     <col min="13" max="13" width="11.42578125" style="3"/>
     <col min="14" max="14" width="21.140625" style="3" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="3"/>
+    <col min="16" max="16" width="17.7109375" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15" x14ac:dyDescent="0.25">
@@ -8705,12 +8918,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="C60" s="17" t="s">
         <v>136</v>
       </c>
       <c r="I60" s="30" t="s">
         <v>141</v>
+      </c>
+      <c r="K60" s="32" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.2">
@@ -8720,6 +8936,9 @@
       <c r="I61" s="25" t="s">
         <v>22</v>
       </c>
+      <c r="K61" s="14" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C62" s="7" t="s">
@@ -8728,10 +8947,16 @@
       <c r="I62" s="25" t="s">
         <v>38</v>
       </c>
+      <c r="K62" s="15" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.2">
       <c r="I63" s="26" t="s">
         <v>156</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30570" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="33360" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="209">
   <si>
     <t>pedidos</t>
   </si>
@@ -626,6 +626,42 @@
   </si>
   <si>
     <t>id_fecha1</t>
+  </si>
+  <si>
+    <t>moneda</t>
+  </si>
+  <si>
+    <t>id_efectivo_en_caja</t>
+  </si>
+  <si>
+    <t>efectivo_en_caja</t>
+  </si>
+  <si>
+    <t>venta_diaria</t>
+  </si>
+  <si>
+    <t>id_venta_diaria</t>
+  </si>
+  <si>
+    <t>id_cuadre_caja_completo</t>
+  </si>
+  <si>
+    <t>id_pers6</t>
+  </si>
+  <si>
+    <t>id_cuadre_caja_completo1</t>
+  </si>
+  <si>
+    <t>id_cuadre_caja_completo2</t>
+  </si>
+  <si>
+    <t>id_cuadre_caja_completo3</t>
+  </si>
+  <si>
+    <t>id_cuadre_caja_completo4</t>
+  </si>
+  <si>
+    <t>cuadre_de_caja_completo</t>
   </si>
 </sst>
 </file>
@@ -792,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -862,6 +898,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7675,6 +7712,591 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1183772</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>155958</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18097500" y="8180294"/>
+          <a:ext cx="892419" cy="604193"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12853147" y="5815853"/>
+          <a:ext cx="1703294" cy="1972235"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>33156</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="122" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14578853" y="7788088"/>
+          <a:ext cx="3518647" cy="694303"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1183772</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>33156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1848970</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="33 Conector recto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E09284-0C72-4EFA-980E-18D08D2CA024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="122" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18989919" y="8482391"/>
+          <a:ext cx="3074463" cy="1535668"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1430301</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66311</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20753294" y="8281147"/>
+          <a:ext cx="892419" cy="604193"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1425818</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>73033</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24480370" y="7918075"/>
+          <a:ext cx="892419" cy="604193"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1851211</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>69475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>883454</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>124580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22066623" y="5963769"/>
+          <a:ext cx="892419" cy="604193"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>961463</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>42582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1853882</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>108892</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="15 Rombo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023B7A06-6FB0-46AE-A2A1-37B74AD98C86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23037051" y="6676464"/>
+          <a:ext cx="892419" cy="604193"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8121,10 +8743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N63"/>
+  <dimension ref="A2:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView tabSelected="1" topLeftCell="I29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8142,9 +8764,9 @@
     <col min="11" max="11" width="21" style="3" customWidth="1"/>
     <col min="12" max="12" width="24.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="3"/>
-    <col min="14" max="14" width="21.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="27.85546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="28" style="3" customWidth="1"/>
+    <col min="16" max="16" width="28.85546875" style="3" customWidth="1"/>
     <col min="17" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
@@ -8586,7 +9208,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C33" s="16" t="s">
         <v>63</v>
       </c>
@@ -8600,7 +9222,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="14" t="s">
         <v>71</v>
       </c>
@@ -8610,11 +9232,14 @@
       <c r="H34" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N34" s="28" t="s">
-        <v>163</v>
+      <c r="N34" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C35" s="14" t="s">
         <v>73</v>
       </c>
@@ -8625,10 +9250,13 @@
         <v>50</v>
       </c>
       <c r="N35" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="P35" s="28" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="C36" s="14" t="s">
         <v>78</v>
@@ -8643,10 +9271,13 @@
         <v>94</v>
       </c>
       <c r="N36" s="28" t="s">
-        <v>22</v>
+        <v>164</v>
+      </c>
+      <c r="P36" s="33" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C37" s="14" t="s">
         <v>70</v>
       </c>
@@ -8659,9 +9290,14 @@
       <c r="J37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="N37" s="10"/>
+      <c r="N37" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="P37" s="28" t="s">
+        <v>197</v>
+      </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C38" s="30" t="s">
         <v>74</v>
       </c>
@@ -8674,8 +9310,12 @@
       <c r="J38" s="17" t="s">
         <v>93</v>
       </c>
+      <c r="N38" s="10"/>
+      <c r="P38" s="28" t="s">
+        <v>199</v>
+      </c>
     </row>
-    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C39" s="30" t="s">
         <v>76</v>
       </c>
@@ -8688,11 +9328,8 @@
       <c r="J39" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="N39" s="27" t="s">
-        <v>166</v>
-      </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C40" s="30" t="s">
         <v>79</v>
       </c>
@@ -8705,11 +9342,14 @@
       <c r="J40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="N40" s="28" t="s">
-        <v>167</v>
+      <c r="N40" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="P40" s="27" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C41" s="14" t="s">
         <v>22</v>
       </c>
@@ -8723,10 +9363,13 @@
         <v>40</v>
       </c>
       <c r="N41" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="P41" s="28" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E42" s="30" t="s">
         <v>80</v>
       </c>
@@ -8736,11 +9379,14 @@
       <c r="J42" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N42" s="28" t="s">
-        <v>164</v>
+      <c r="N42" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="P42" s="33" t="s">
+        <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E43" s="14" t="s">
         <v>22</v>
       </c>
@@ -8748,15 +9394,21 @@
         <v>121</v>
       </c>
       <c r="N43" s="28" t="s">
-        <v>22</v>
+        <v>168</v>
+      </c>
+      <c r="P43" s="28" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H44" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="N44" s="28" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
         <v>111</v>
       </c>
@@ -8766,8 +9418,11 @@
       <c r="H45" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="N45" s="28" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B46" s="23" t="s">
         <v>112</v>
       </c>
@@ -8775,7 +9430,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B47" s="23" t="s">
         <v>113</v>
       </c>
@@ -8783,7 +9438,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="23" t="s">
         <v>22</v>
       </c>
@@ -8797,7 +9452,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="I49" s="25" t="s">
         <v>129</v>
       </c>
@@ -8805,7 +9460,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="I50" s="25" t="s">
         <v>130</v>
       </c>
@@ -8813,7 +9468,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="3:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:15" ht="15" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
         <v>139</v>
       </c>
@@ -8827,7 +9482,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="7" t="s">
         <v>131</v>
       </c>
@@ -8838,7 +9493,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" ht="15" x14ac:dyDescent="0.25">
       <c r="C53" s="7" t="s">
         <v>130</v>
       </c>
@@ -8848,8 +9503,11 @@
       <c r="K53" s="7" t="s">
         <v>183</v>
       </c>
+      <c r="O53" s="27" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="7" t="s">
         <v>137</v>
       </c>
@@ -8859,8 +9517,11 @@
       <c r="K54" s="7" t="s">
         <v>184</v>
       </c>
+      <c r="O54" s="28" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="55" spans="3:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E55" s="7" t="s">
         <v>40</v>
       </c>
@@ -8873,8 +9534,11 @@
       <c r="K55" s="7" t="s">
         <v>185</v>
       </c>
+      <c r="O55" s="29" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E56" s="7" t="s">
         <v>22</v>
       </c>
@@ -8888,7 +9552,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="G57" s="25" t="s">
         <v>158</v>
       </c>
@@ -8899,7 +9563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="3:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:15" ht="15" x14ac:dyDescent="0.25">
       <c r="C58" s="6" t="s">
         <v>140</v>
       </c>
@@ -8910,7 +9574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="7" t="s">
         <v>135</v>
       </c>
@@ -8918,7 +9582,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="3:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:15" ht="15" x14ac:dyDescent="0.25">
       <c r="C60" s="17" t="s">
         <v>136</v>
       </c>
@@ -8929,7 +9593,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="7" t="s">
         <v>6</v>
       </c>
@@ -8940,7 +9604,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="7" t="s">
         <v>95</v>
       </c>
@@ -8951,7 +9615,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="I63" s="26" t="s">
         <v>156</v>
       </c>

--- a/bd/bd.xlsx
+++ b/bd/bd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33360" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="34290" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="209">
   <si>
     <t>pedidos</t>
   </si>
@@ -8057,13 +8057,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>17928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1425818</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>73033</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8745,8 +8745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="I17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9551,6 +9551,9 @@
       <c r="K56" s="7" t="s">
         <v>186</v>
       </c>
+      <c r="O56" s="28" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="G57" s="25" t="s">
